--- a/biology/Zoologie/Achalinus_meiguensis/Achalinus_meiguensis.xlsx
+++ b/biology/Zoologie/Achalinus_meiguensis/Achalinus_meiguensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achalinus meiguensis est une espèce de serpents de la famille des Xenodermatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achalinus meiguensis est une espèce de serpents de la famille des Xenodermatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Chine[1]. Elle se rencontre entre 1 200 et 2 520 m d'altitude[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre entre 1 200 et 2 520 m d'altitude :
 au Sichuan dans les xians de Baoxing, de Meigu, de Pingshan, de Hongya et de Wenchuan ;
 au Yunnan dans le xian de Shuifu.
 </t>
@@ -544,9 +558,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ADN mitocondrial de ce serpent a été séquencé[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ADN mitocondrial de ce serpent a été séquencé.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de meigu et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le xian de Meigu.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hu &amp; Zhao, 1966 : Three new Species of Reptiles from Szechwan. Acta Zootaxonomica Sinica, vol. 3, no 2, p. 158-164.</t>
         </is>
